--- a/Gantt, WBS, Project Charter, BPM/Project-Charter-Plantilla-resumen.xlsx
+++ b/Gantt, WBS, Project Charter, BPM/Project-Charter-Plantilla-resumen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ljsul\OneDrive\Documentos\InnovacionYTransformacionDigital\Gantt, WBS, Project Charter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhoan\Documents\UTP\Octavo Ciclo\Innovación y Transformación Digital\InnovacionYTransformacionDigital\Gantt, WBS, Project Charter, BPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C69A39A-BA4F-4EF5-A764-15D12250BF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C7DFC4-E1A7-43BF-86B8-8D72A92D378D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROJECT CHARTER" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,6 @@
     <t>OBJETIVOS</t>
   </si>
   <si>
-    <t>Implementar un sistema digital de gestión de pedidos que mejore la eficiencia operativa del chifa y eleve la satisfacción del cliente.</t>
-  </si>
-  <si>
     <t>1. Documento de levantamiento de requisitos.
 2. Diseño de interfaces (UI/UX).
 3. Sistema de gestión de pedidos implementado.
@@ -262,6 +259,10 @@
   </si>
   <si>
     <t>Geanny Jacinta Cueva Zavaleta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desarrollar un sistema web que permita a los clientes de Chifa Fu realizar pedidos en
+ línea de forma sencilla, rápida y segura, y que a la vez optimice la gestión interna de los pedidos dentro del restaurante</t>
   </si>
 </sst>
 </file>
@@ -739,6 +740,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -748,95 +752,92 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1176,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1190,23 +1191,23 @@
   <sheetData>
     <row r="1" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -1216,9 +1217,9 @@
       <c r="C3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -1226,11 +1227,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
+        <v>65</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -1240,9 +1241,9 @@
       <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
     </row>
     <row r="6" spans="1:6" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
@@ -1250,11 +1251,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
+        <v>41</v>
+      </c>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -1264,9 +1265,9 @@
       <c r="C7" s="4">
         <v>990690989</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
@@ -1276,9 +1277,9 @@
       <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -1288,9 +1289,9 @@
       <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
@@ -1300,9 +1301,9 @@
       <c r="C10" s="5">
         <v>45904</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
@@ -1312,9 +1313,9 @@
       <c r="C11" s="5">
         <v>45988</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -1324,9 +1325,9 @@
       <c r="C12" s="6">
         <v>1000</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
@@ -1336,111 +1337,111 @@
       <c r="C13" s="6">
         <v>30000</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="C17" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
+      <c r="C18" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
+      <c r="C20" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" spans="1:6" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
+      <c r="C21" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="25" t="s">
         <v>30</v>
       </c>
@@ -1450,113 +1451,113 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="50"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="35"/>
       <c r="E23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="50"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="35"/>
       <c r="E24" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="16" t="s">
         <v>53</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="50"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="35"/>
       <c r="E25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="50"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="35"/>
       <c r="E26" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>57</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="59" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="60"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="60"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="35"/>
+      <c r="E28" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="50"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="50"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="50"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
     </row>
@@ -1570,47 +1571,47 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
+      <c r="C35" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
     </row>
     <row r="36" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
+      <c r="C36" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="38"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:6" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
@@ -1618,7 +1619,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -1630,7 +1631,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
@@ -1638,13 +1639,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
@@ -1652,15 +1653,15 @@
         <v>26</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="60">
         <v>45903</v>
       </c>
-      <c r="F41" s="36"/>
+      <c r="F41" s="61"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
@@ -1683,6 +1684,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="D3:F13"/>
+    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B34:F34"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
@@ -1699,21 +1715,6 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E28:F28"/>
-    <mergeCell ref="D3:F13"/>
-    <mergeCell ref="B22:B32"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B40:F40"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
